--- a/xlsx/country_comparison/solidarity_support_pol_US_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_US_mean.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -470,477 +467,444 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.748108439408092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362171700798723</v>
+        <v>0.817647137401234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.817647137401234</v>
+        <v>1.32564124488598</v>
       </c>
       <c r="E2" t="n">
-        <v>1.32564124488598</v>
+        <v>0.773653291646155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.773653291646155</v>
+        <v>0.529221689289784</v>
       </c>
       <c r="G2" t="n">
-        <v>0.529221689289784</v>
+        <v>0.507672921271455</v>
       </c>
       <c r="H2" t="n">
-        <v>0.507672921271455</v>
+        <v>0.707476508293962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.707476508293962</v>
+        <v>0.495218884354337</v>
       </c>
       <c r="J2" t="n">
-        <v>0.495218884354337</v>
+        <v>0.802554984456282</v>
       </c>
       <c r="K2" t="n">
-        <v>0.802554984456282</v>
+        <v>0.611013436916942</v>
       </c>
       <c r="L2" t="n">
-        <v>0.611013436916942</v>
+        <v>0.637831843511571</v>
       </c>
       <c r="M2" t="n">
-        <v>0.637831843511571</v>
+        <v>1.27187155660457</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27187155660457</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.0650151157240103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.538331317889367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.490851843196458</v>
+        <v>0.516811780976692</v>
       </c>
       <c r="D3" t="n">
-        <v>0.516811780976692</v>
+        <v>0.993060830062407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.993060830062407</v>
+        <v>0.639420256870417</v>
       </c>
       <c r="F3" t="n">
-        <v>0.639420256870417</v>
+        <v>0.178022427567142</v>
       </c>
       <c r="G3" t="n">
-        <v>0.178022427567142</v>
+        <v>0.270227396821779</v>
       </c>
       <c r="H3" t="n">
-        <v>0.270227396821779</v>
+        <v>0.483958742029262</v>
       </c>
       <c r="I3" t="n">
-        <v>0.483958742029262</v>
+        <v>0.402985842257098</v>
       </c>
       <c r="J3" t="n">
-        <v>0.402985842257098</v>
+        <v>0.582480343088043</v>
       </c>
       <c r="K3" t="n">
-        <v>0.582480343088043</v>
+        <v>0.398051591571456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.398051591571456</v>
+        <v>0.420572659025095</v>
       </c>
       <c r="M3" t="n">
-        <v>0.420572659025095</v>
+        <v>0.9676668396328</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9676668396328</v>
-      </c>
-      <c r="O3" t="n">
         <v>-0.0924690322664047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.458387576622686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.221184284078679</v>
+        <v>0.397307555924885</v>
       </c>
       <c r="D4" t="n">
-        <v>0.397307555924885</v>
+        <v>0.89630864162354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.89630864162354</v>
+        <v>0.510083627245764</v>
       </c>
       <c r="F4" t="n">
-        <v>0.510083627245764</v>
+        <v>-0.0372447424300675</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0372447424300675</v>
+        <v>0.190001288040726</v>
       </c>
       <c r="H4" t="n">
-        <v>0.190001288040726</v>
+        <v>0.369650389914943</v>
       </c>
       <c r="I4" t="n">
-        <v>0.369650389914943</v>
+        <v>0.315628598381185</v>
       </c>
       <c r="J4" t="n">
-        <v>0.315628598381185</v>
+        <v>0.457317655564507</v>
       </c>
       <c r="K4" t="n">
-        <v>0.457317655564507</v>
+        <v>0.341509961267345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.341509961267345</v>
+        <v>0.3751153596592</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3751153596592</v>
+        <v>0.860594629094862</v>
       </c>
       <c r="N4" t="n">
-        <v>0.860594629094862</v>
-      </c>
-      <c r="O4" t="n">
         <v>-0.224011634614708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.340202418477655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203232712191956</v>
+        <v>0.294093973495408</v>
       </c>
       <c r="D5" t="n">
-        <v>0.294093973495408</v>
+        <v>0.715474043982672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.715474043982672</v>
+        <v>0.382751167654782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.382751167654782</v>
+        <v>-0.203666646242047</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.203666646242047</v>
+        <v>0.0130537361393236</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0130537361393236</v>
+        <v>0.170380103753737</v>
       </c>
       <c r="I5" t="n">
-        <v>0.170380103753737</v>
+        <v>0.142327045269292</v>
       </c>
       <c r="J5" t="n">
-        <v>0.142327045269292</v>
+        <v>0.359480582152642</v>
       </c>
       <c r="K5" t="n">
-        <v>0.359480582152642</v>
+        <v>0.234130868836122</v>
       </c>
       <c r="L5" t="n">
-        <v>0.234130868836122</v>
+        <v>0.217943990590892</v>
       </c>
       <c r="M5" t="n">
-        <v>0.217943990590892</v>
+        <v>0.711174261698852</v>
       </c>
       <c r="N5" t="n">
-        <v>0.711174261698852</v>
-      </c>
-      <c r="O5" t="n">
         <v>-0.199872640439334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.33829822989737</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00176765786102198</v>
+        <v>0.346446226521563</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346446226521563</v>
+        <v>0.722333529543412</v>
       </c>
       <c r="E6" t="n">
-        <v>0.722333529543412</v>
+        <v>0.314696006950884</v>
       </c>
       <c r="F6" t="n">
-        <v>0.314696006950884</v>
+        <v>-0.0575659689237297</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0575659689237297</v>
+        <v>0.156007282015151</v>
       </c>
       <c r="H6" t="n">
-        <v>0.156007282015151</v>
+        <v>0.340517416281124</v>
       </c>
       <c r="I6" t="n">
-        <v>0.340517416281124</v>
+        <v>0.178406875332954</v>
       </c>
       <c r="J6" t="n">
-        <v>0.178406875332954</v>
+        <v>0.335113345595865</v>
       </c>
       <c r="K6" t="n">
-        <v>0.335113345595865</v>
+        <v>0.275542175674777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.275542175674777</v>
+        <v>0.359431660781135</v>
       </c>
       <c r="M6" t="n">
-        <v>0.359431660781135</v>
+        <v>0.635303602175847</v>
       </c>
       <c r="N6" t="n">
-        <v>0.635303602175847</v>
-      </c>
-      <c r="O6" t="n">
         <v>-0.173015941873683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.329346428115222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.149102593209469</v>
+        <v>0.344294468039731</v>
       </c>
       <c r="D7" t="n">
-        <v>0.344294468039731</v>
+        <v>0.966623413829111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.966623413829111</v>
+        <v>0.380404840043188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.380404840043188</v>
+        <v>0.255630216253483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.255630216253483</v>
+        <v>0.215238393472086</v>
       </c>
       <c r="H7" t="n">
-        <v>0.215238393472086</v>
+        <v>0.475226190923084</v>
       </c>
       <c r="I7" t="n">
-        <v>0.475226190923084</v>
+        <v>0.314508297057087</v>
       </c>
       <c r="J7" t="n">
-        <v>0.314508297057087</v>
+        <v>0.382386721135583</v>
       </c>
       <c r="K7" t="n">
-        <v>0.382386721135583</v>
+        <v>0.203512220868103</v>
       </c>
       <c r="L7" t="n">
-        <v>0.203512220868103</v>
+        <v>0.227936339106368</v>
       </c>
       <c r="M7" t="n">
-        <v>0.227936339106368</v>
+        <v>0.760894205533922</v>
       </c>
       <c r="N7" t="n">
-        <v>0.760894205533922</v>
-      </c>
-      <c r="O7" t="n">
         <v>-0.258309044847189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.320249242216214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0782667348780504</v>
+        <v>0.307266211158109</v>
       </c>
       <c r="D8" t="n">
-        <v>0.307266211158109</v>
+        <v>0.842685134300105</v>
       </c>
       <c r="E8" t="n">
-        <v>0.842685134300105</v>
+        <v>0.39791478681283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.39791478681283</v>
+        <v>-0.207884437612662</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.207884437612662</v>
+        <v>-0.0232948275266601</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0232948275266601</v>
+        <v>0.167835305478371</v>
       </c>
       <c r="I8" t="n">
-        <v>0.167835305478371</v>
+        <v>0.0826731315459805</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0826731315459805</v>
+        <v>0.293936142018914</v>
       </c>
       <c r="K8" t="n">
-        <v>0.293936142018914</v>
+        <v>0.108047166809046</v>
       </c>
       <c r="L8" t="n">
-        <v>0.108047166809046</v>
+        <v>0.230856615873908</v>
       </c>
       <c r="M8" t="n">
-        <v>0.230856615873908</v>
+        <v>0.710961677011096</v>
       </c>
       <c r="N8" t="n">
-        <v>0.710961677011096</v>
-      </c>
-      <c r="O8" t="n">
         <v>-0.486893200935083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.319190975705175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.125919754990791</v>
+        <v>0.307603449860194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.307603449860194</v>
+        <v>0.829235444006102</v>
       </c>
       <c r="E9" t="n">
-        <v>0.829235444006102</v>
+        <v>0.364476830507379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.364476830507379</v>
+        <v>0.0206245640009462</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0206245640009462</v>
+        <v>0.00535231156239397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00535231156239397</v>
+        <v>0.124308334379696</v>
       </c>
       <c r="I9" t="n">
-        <v>0.124308334379696</v>
+        <v>0.0757577552841607</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0757577552841607</v>
+        <v>0.341104071618301</v>
       </c>
       <c r="K9" t="n">
-        <v>0.341104071618301</v>
+        <v>0.211703205924887</v>
       </c>
       <c r="L9" t="n">
-        <v>0.211703205924887</v>
+        <v>0.226492442047215</v>
       </c>
       <c r="M9" t="n">
-        <v>0.226492442047215</v>
+        <v>0.69384747595753</v>
       </c>
       <c r="N9" t="n">
-        <v>0.69384747595753</v>
-      </c>
-      <c r="O9" t="n">
         <v>-0.206802852572372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.31547866481026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173924318001705</v>
+        <v>0.341201034147955</v>
       </c>
       <c r="D10" t="n">
-        <v>0.341201034147955</v>
+        <v>0.816410624684796</v>
       </c>
       <c r="E10" t="n">
-        <v>0.816410624684796</v>
+        <v>0.563362982235775</v>
       </c>
       <c r="F10" t="n">
-        <v>0.563362982235775</v>
+        <v>0.0933990366390012</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0933990366390012</v>
+        <v>0.113656480813608</v>
       </c>
       <c r="H10" t="n">
-        <v>0.113656480813608</v>
+        <v>0.335172796251208</v>
       </c>
       <c r="I10" t="n">
-        <v>0.335172796251208</v>
+        <v>0.268968939604004</v>
       </c>
       <c r="J10" t="n">
-        <v>0.268968939604004</v>
+        <v>0.394541563940376</v>
       </c>
       <c r="K10" t="n">
-        <v>0.394541563940376</v>
+        <v>0.189304175460766</v>
       </c>
       <c r="L10" t="n">
-        <v>0.189304175460766</v>
+        <v>0.242987426599086</v>
       </c>
       <c r="M10" t="n">
-        <v>0.242987426599086</v>
+        <v>0.711947039923566</v>
       </c>
       <c r="N10" t="n">
-        <v>0.711947039923566</v>
-      </c>
-      <c r="O10" t="n">
         <v>-0.221135828867629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.010244201702362</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.212917992384592</v>
+        <v>-0.0628667371088591</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0628667371088591</v>
+        <v>0.495730205253994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.495730205253994</v>
+        <v>0.053167082596719</v>
       </c>
       <c r="F11" t="n">
-        <v>0.053167082596719</v>
+        <v>-0.317150318553615</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.317150318553615</v>
+        <v>-0.121424317090429</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.121424317090429</v>
+        <v>-0.0580953959864492</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0580953959864492</v>
+        <v>-0.0790943764613775</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0790943764613775</v>
+        <v>0.00324167860158305</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00324167860158305</v>
+        <v>-0.115790120406461</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.115790120406461</v>
+        <v>-0.057232812078052</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.057232812078052</v>
+        <v>0.328732155910792</v>
       </c>
       <c r="N11" t="n">
-        <v>0.328732155910792</v>
-      </c>
-      <c r="O11" t="n">
         <v>-0.483840438600429</v>
       </c>
     </row>
